--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="115">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -279,6 +279,88 @@
   </si>
   <si>
     <t xml:space="preserve">DTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">READ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text1111111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HWVe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HWVesion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HWVersion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HaWVersion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwaWVersion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwaraWVersion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwareWVersion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwareVersion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoftwareVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoftwareVersion:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoftwareVersion:</t>
   </si>
 </sst>
 </file>
@@ -1746,16 +1828,16 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1763,16 +1845,16 @@
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1780,16 +1862,16 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1797,7 +1879,7 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
@@ -1806,7 +1888,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1814,7 +1896,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -1823,7 +1905,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1831,25 +1913,123 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:10"/>
-    <row r="13" spans="2:10"/>
-    <row r="14" spans="2:10"/>
-    <row r="15" spans="2:10"/>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="16" spans="2:10"/>
     <row r="17" spans="4:4"/>
     <row r="18" spans="4:4"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9004" uniqueCount="144">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -361,6 +361,93 @@
   </si>
   <si>
     <t xml:space="preserve">SoftwareVersion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourceId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwareVersion:,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwareVersion:&lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB-DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwareVersion:&lt;tex&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwareVersion:&lt;text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoftwareVersion:&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwareVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwareVersion:&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardwareVersion:&lt;valu&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HwareVersion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HartwareVersion:&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefghijklmnop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qazwsxed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qazwsxedcrfvtgbyhnujmikolp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arial.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.</t>
   </si>
 </sst>
 </file>
@@ -1597,9 +1684,15 @@
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
       <c r="I4"/>
       <c r="K4" s="5" t="s">
         <v>17</v>
@@ -1630,9 +1723,13 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
       <c r="G5"/>
-      <c r="H5"/>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
       <c r="I5"/>
       <c r="K5" s="8" t="s">
         <v>1</v>
@@ -1661,9 +1758,13 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
       <c r="G6"/>
-      <c r="H6"/>
+      <c r="H6" t="s">
+        <v>129</v>
+      </c>
       <c r="I6"/>
       <c r="K6" s="8" t="s">
         <v>2</v>
@@ -1998,7 +2099,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -2007,7 +2108,7 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
         <v>50</v>
@@ -2015,7 +2116,7 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -2024,7 +2125,7 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
         <v>50</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9004" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14908" uniqueCount="179">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -448,6 +448,158 @@
   </si>
   <si>
     <t xml:space="preserve">V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt; %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updata P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updata Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updata Progress:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Lorem ipsum dolor sit amet, consectetur adipiscing elit. 
+Donecplacerat iaculis augue, sit amet porta libero elementum
+vel. Vestibulum consequat placerat tellus, in tristique sapien
+pulvinar sit amet. Curabitur lorem nunc, eleifend eget viverra sed,
+tempus malesuada velit. Nullam id nisl nibh. 
+Praesent in quam dolor. Phasellus ut accumsan nunc. Mauris tempor
+mi non risus semper sagittis in ac metus. 
+Morbi nisl eros, condimentum id lobortis et, fermentum id massa. 
+Suspendisse potenti. Phasellus venenatis interdum
+turpis a molestie. Maecenas dignissim consequat diam ut
+pretium. Praesent leo elit, dignissim in tristique non, suscipit vitae
+velit. Nunc vitae risus dui, a porta velit. Curabitur et odio tellus,
+a pretium erat.Suspendisse in fringilla neque.
+Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec
+placerat iaculis augue, sit amet porta libero elementum
+vel. Vestibulum consequat placerat tellus, in tristique sapien
+pulvinar sit amet. Curabitur lorem nunc, eleifend eget viverra sed,
+tempus malesuada velit. Nullam id nisl nibh.
+Morbi nisl eros, condimentum id lobortis et, fermentum id massa. 
+Suspendisse potenti. Phasellus venenatis interdum
+turpis a molestie. Maecenas dignissim consequat diam ut
+pretium. Praesent leo elit, dignissim in tristique non, suscipit vitae
+velit. Nunc vitae risus dui, a porta velit. Curabitur et odio tellus,
+a pretium erat.Suspendisse in fringilla neque. "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Lorem ipsum dolor sit amet, consectetur adipiscing elit. 
+Donecplacerat iaculis augue, sit amet porta libero elementum
+vel. Vestibulum consequat placerat tellus, in tristique sapien
+pulvinar sit amet. Curabitur lorem nunc, eleifend eget viverra sed,
+tempus malesuada velit. Nullam id nisl nibh. 
+Praesent in quam dolor. Phasellus ut accumsan nunc. Mauris tempor
+mi non risus semper sagittis in ac metus. 
+Morbi nisl eros, condimentum id lobortis et, fermentum id massa. 
+Suspendisse potenti. Phasellus venenatis interdum
+turpis a molestie. Maecenas dignissim consequat diam ut
+pretium. Praesent leo elit, dignissim in tristique non, suscipit vitae
+velit. Nunc vitae risus dui, a porta velit. Curabitur et odio tellus,
+a pretium erat.Suspendisse in fringilla neque.
+Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec
+placerat iaculis augue, sit amet porta libero elementum
+vel. Vestibulum consequat placerat tellus, in tristique sapien
+pulvinar sit amet. Curabitur lorem nunc, eleifend eget viverra sed,
+tempus malesuada velit. Nullam id nisl nibh.
+Morbi nisl eros, condimentum id lobortis et, fermentum id massa. 
+Suspendisse potenti. Phasellus venenatis interdum
+turpis a molestie. Maecenas dignissim consequat diam ut
+pretium. Praesent leo elit, dignissim in tristique non, suscipit vitae
+velit. Nunc vitae risus dui, a porta velit. Curabitur et odio tellus,
+a pretium erat.Suspendisse in fringilla neque. "
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Lorem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">orem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMO&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.qazw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.qazwsxedcrfvtgbyhnujmik,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.qazwsxedcrfvtgbyhnujmikolp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V. qazwsxedcrfvtgbyhnujmikolp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.！ qazwsxedcrfvtgbyhnujmikolp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.  qazwsxedcrfvtgbyhnujmikolp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V. !qazwsxedcrfvtgbyhnujmikolp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V. ! , .qazwsxedcrfvtgbyhnujmikolp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V., !qazwsxedcrfvtgbyhnujmikolp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vqazwsxedcrfvtgbyhnujmikolp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vqazwsxedcrfvtgbyhnujmikolp., !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vqazwsxedcrfvtgbyhnujmikolp.,!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vqazwsxedcrfvtgbyhnujmikolp.,!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V qazwsxedcrfvtgbyhnujmikolp.,!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V qazwsxedcrfvtgbyhnujmikolp.,!f  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V qazwsxedcrfvtgbyhnujmikolp.,!\r  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V qazwsxedcrfvtgbyhnujmikolp.,!\  </t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1840,7 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H4" t="s">
         <v>129</v>
@@ -2131,10 +2283,74 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:10"/>
-    <row r="17" spans="4:4"/>
-    <row r="18" spans="4:4"/>
-    <row r="19" spans="4:4"/>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="20" spans="4:4"/>
     <row r="21" spans="4:4"/>
     <row r="22" spans="4:4"/>
